--- a/data/trans_dic/P1438_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1438_2023-Edad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.007988252131561497</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.003759338074264925</v>
+        <v>0.003759338074264924</v>
       </c>
     </row>
     <row r="5">
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.03012890946102072</v>
+        <v>0.02683632404208167</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01245153847970408</v>
+        <v>0.01275777593405947</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004672411122499708</v>
+        <v>0.004668319276621623</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.008284805174611718</v>
+        <v>0.008681541365349319</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.009195378996857295</v>
+        <v>0.008992979862340864</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03010804623148286</v>
+        <v>0.03277775701847872</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03509662301800526</v>
+        <v>0.0356776559024984</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02715352226715291</v>
+        <v>0.02736817024108158</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>0.03349667733625569</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.04472622096402112</v>
+        <v>0.04472622096402114</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.03911439294835852</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02113372385821144</v>
+        <v>0.02112468812471224</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03160949336059461</v>
+        <v>0.03233635605772467</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02984334797681858</v>
+        <v>0.02972648624698313</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05204692837859971</v>
+        <v>0.0531875829903637</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0612219365322723</v>
+        <v>0.06059134861307204</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05044015610356071</v>
+        <v>0.04993969267513808</v>
       </c>
     </row>
     <row r="13">
@@ -725,13 +725,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.05146015841641953</v>
+        <v>0.05146015841641952</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.07283096704605076</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.06241232636026851</v>
+        <v>0.06241232636026852</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03636168375255451</v>
+        <v>0.03569165245593989</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05935199008266816</v>
+        <v>0.05876032857128195</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05150224305218307</v>
+        <v>0.05182469728008924</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06921285756582063</v>
+        <v>0.07223814213850649</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08933865168157953</v>
+        <v>0.08829960497535169</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07564704526423641</v>
+        <v>0.07505914600989658</v>
       </c>
     </row>
     <row r="16">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03806763806332037</v>
+        <v>0.03905257611629342</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09132858664622553</v>
+        <v>0.09109538232373111</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06911920461171497</v>
+        <v>0.06935754611128679</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07004007708219927</v>
+        <v>0.07249645573366068</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1301298635138705</v>
+        <v>0.1310300923340009</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09564295123392408</v>
+        <v>0.09442271044947252</v>
       </c>
     </row>
     <row r="19">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.06009252228496662</v>
+        <v>0.06154092816139856</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.09811721168594566</v>
+        <v>0.0988511149846235</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.08732289441890098</v>
+        <v>0.08574787860254628</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1028172296832233</v>
+        <v>0.1059140538633975</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1406302611820642</v>
+        <v>0.1428219228020004</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1175815958185554</v>
+        <v>0.1174823742503183</v>
       </c>
     </row>
     <row r="22">
@@ -893,7 +893,7 @@
         <v>0.115080865413145</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2269827480678725</v>
+        <v>0.2269827480678724</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.1821822160853382</v>
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.08918809036664192</v>
+        <v>0.08984382325714031</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1975311995394144</v>
+        <v>0.1985817012128641</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1611083928983469</v>
+        <v>0.1616452193251912</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1463936456498211</v>
+        <v>0.1455350304188566</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2576367014600583</v>
+        <v>0.2569487222858817</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2028145987216259</v>
+        <v>0.2037179595292607</v>
       </c>
     </row>
     <row r="25">
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.04639482372672283</v>
+        <v>0.04639482372672282</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.08531113403839566</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.040504373267947</v>
+        <v>0.04032425447296011</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.07736388730294527</v>
+        <v>0.07819012130050507</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.06184074404569259</v>
+        <v>0.06166918221837801</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.05310143996937209</v>
+        <v>0.05351329065679152</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.09231159527093333</v>
+        <v>0.09292130700815769</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.07146067979480912</v>
+        <v>0.0712123005197273</v>
       </c>
     </row>
     <row r="28">
@@ -1146,10 +1146,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>10922</v>
+        <v>9728</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9591</v>
+        <v>9827</v>
       </c>
     </row>
     <row r="8">
@@ -1198,13 +1198,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4151</v>
+        <v>4350</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8993</v>
+        <v>8795</v>
       </c>
     </row>
     <row r="11">
@@ -1215,13 +1215,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14358</v>
+        <v>15631</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>17586</v>
+        <v>17877</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>26555</v>
+        <v>26765</v>
       </c>
     </row>
     <row r="12">
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>13121</v>
+        <v>13115</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>19645</v>
+        <v>20097</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>37075</v>
+        <v>36930</v>
       </c>
     </row>
     <row r="15">
@@ -1287,13 +1287,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>32313</v>
+        <v>33021</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>38049</v>
+        <v>37657</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>62663</v>
+        <v>62041</v>
       </c>
     </row>
     <row r="16">
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>25476</v>
+        <v>25006</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>43712</v>
+        <v>43277</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>74014</v>
+        <v>74478</v>
       </c>
     </row>
     <row r="19">
@@ -1359,13 +1359,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>48492</v>
+        <v>50611</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>65797</v>
+        <v>65032</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>108713</v>
+        <v>107868</v>
       </c>
     </row>
     <row r="20">
@@ -1414,13 +1414,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>23121</v>
+        <v>23719</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>55415</v>
+        <v>55273</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>83919</v>
+        <v>84209</v>
       </c>
     </row>
     <row r="23">
@@ -1431,13 +1431,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>42540</v>
+        <v>44032</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>78958</v>
+        <v>79504</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>116123</v>
+        <v>114641</v>
       </c>
     </row>
     <row r="24">
@@ -1486,13 +1486,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>24358</v>
+        <v>24945</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>43024</v>
+        <v>43346</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>73686</v>
+        <v>72357</v>
       </c>
     </row>
     <row r="27">
@@ -1503,13 +1503,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>41676</v>
+        <v>42931</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>61666</v>
+        <v>62627</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>99220</v>
+        <v>99136</v>
       </c>
     </row>
     <row r="28">
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>27666</v>
+        <v>27869</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>91775</v>
+        <v>92263</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>124828</v>
+        <v>125244</v>
       </c>
     </row>
     <row r="31">
@@ -1575,13 +1575,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>45411</v>
+        <v>45145</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>119700</v>
+        <v>119381</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>157142</v>
+        <v>157842</v>
       </c>
     </row>
     <row r="32">
@@ -1630,13 +1630,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>142941</v>
+        <v>142306</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>288679</v>
+        <v>291763</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>448994</v>
+        <v>447748</v>
       </c>
     </row>
     <row r="35">
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>187397</v>
+        <v>188850</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>344456</v>
+        <v>346731</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>518839</v>
+        <v>517036</v>
       </c>
     </row>
     <row r="36">
